--- a/Project/IAG Solar Flux Atlas/Visible range/Data/valores vacio Nave.xlsx
+++ b/Project/IAG Solar Flux Atlas/Visible range/Data/valores vacio Nave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Final-Project\Visible range\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Final-Project\Project\IAG Solar Flux Atlas\Visible range\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD8A6A-0E66-49FA-9E2B-F094F23580B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE6F274-711D-436C-972F-5120095D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="3300" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>Benjamin Oostra Vannoppen</author>
   </authors>
   <commentList>
-    <comment ref="A596" authorId="0" shapeId="0" xr:uid="{7536B459-60A0-4C4F-892A-7F4E9688A733}">
+    <comment ref="A595" authorId="0" shapeId="0" xr:uid="{7536B459-60A0-4C4F-892A-7F4E9688A733}">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A618" authorId="0" shapeId="0" xr:uid="{F37B2794-C904-45C7-A2B7-A61F1F8E97E1}">
+    <comment ref="A617" authorId="0" shapeId="0" xr:uid="{F37B2794-C904-45C7-A2B7-A61F1F8E97E1}">
       <text>
         <r>
           <rPr>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A630"/>
+  <dimension ref="A1:A629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A629" sqref="A629:XFD629"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1212,2397 +1212,2392 @@
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>4986.9381999999996</v>
+        <v>4987.6138000000001</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>4987.6138000000001</v>
+        <v>4990.3419000000004</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>4990.3419000000004</v>
+        <v>4992.6607999999997</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>4992.6607999999997</v>
+        <v>4995.5227999999997</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>4995.5227999999997</v>
+        <v>5000.5070999999998</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>5000.5070999999998</v>
+        <v>5003.2588999999998</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>5003.2588999999998</v>
+        <v>5004.1882999999998</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>5004.1882999999998</v>
+        <v>5005.4402</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>5005.4402</v>
+        <v>5007.1085999999996</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>5007.1085999999996</v>
+        <v>5016.3411999999998</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>5016.3411999999998</v>
+        <v>5023.6361999999999</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>5023.6361999999999</v>
+        <v>5024.5875999999998</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>5024.5875999999998</v>
+        <v>5029.1588000000002</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>5029.1588000000002</v>
+        <v>5029.5285999999996</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>5029.5285999999996</v>
+        <v>5031.0203000000001</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>5031.0203000000001</v>
+        <v>5032.1815999999999</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>5032.1815999999999</v>
+        <v>5043.1619000000001</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>5043.1619000000001</v>
+        <v>5045.6179000000002</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>5045.6179000000002</v>
+        <v>5056.0519000000004</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>5056.0519000000004</v>
+        <v>5070.1788999999999</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>5070.1788999999999</v>
+        <v>5074.0861999999997</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>5074.0861999999997</v>
+        <v>5080.3905999999997</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>5080.3905999999997</v>
+        <v>5084.7555000000002</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>5084.7555000000002</v>
+        <v>5092.1929</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>5092.1929</v>
+        <v>5100.1192000000001</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>5100.1192000000001</v>
+        <v>5100.4984000000004</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>5100.4984000000004</v>
+        <v>5108.8707999999997</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>5108.8707999999997</v>
+        <v>5117.2037</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>5117.2037</v>
+        <v>5128.7879999999996</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>5128.7879999999996</v>
+        <v>5132.8984</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>5132.8984</v>
+        <v>5138.8135000000002</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>5138.8135000000002</v>
+        <v>5143.1715000000004</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>5143.1715000000004</v>
+        <v>5149.4769999999999</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>5149.4769999999999</v>
+        <v>5149.6634000000004</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>5149.6634000000004</v>
+        <v>5160.4947000000002</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>5160.4947000000002</v>
+        <v>5163.7107999999998</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>5163.7107999999998</v>
+        <v>5166.8495000000003</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>5166.8495000000003</v>
+        <v>5196.3883999999998</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>5196.3883999999998</v>
+        <v>5196.9191000000001</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>5196.9191000000001</v>
+        <v>5197.5065000000004</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>5197.5065000000004</v>
+        <v>5200.1588000000002</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>5200.1588000000002</v>
+        <v>5216.6327000000001</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>5216.6327000000001</v>
+        <v>5217.7263000000003</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>5217.7263000000003</v>
+        <v>5218.8419999999996</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>5218.8419999999996</v>
+        <v>5224.6396999999997</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>5224.6396999999997</v>
+        <v>5226.9808999999996</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>5226.9808999999996</v>
+        <v>5229.8323</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>5229.8323</v>
+        <v>5234.3971000000001</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>5234.3971000000001</v>
+        <v>5243.9503999999997</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>5243.9503999999997</v>
+        <v>5245.2366000000002</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>5245.2366000000002</v>
+        <v>5248.5110000000004</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>5248.5110000000004</v>
+        <v>5251.6702999999998</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>5251.6702999999998</v>
+        <v>5252.1075000000001</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>5252.1075000000001</v>
+        <v>5254.924</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>5254.924</v>
+        <v>5271.0038999999997</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>5271.0038999999997</v>
+        <v>5283.2601000000004</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>5283.2601000000004</v>
+        <v>5323.5213000000003</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>5323.5213000000003</v>
+        <v>5325.6601000000001</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>5325.6601000000001</v>
+        <v>5327.6243999999997</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>5327.6243999999997</v>
+        <v>5329.5208000000002</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>5329.5208000000002</v>
+        <v>5330.0138999999999</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>5330.0138999999999</v>
+        <v>5331.4717000000001</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>5331.4717000000001</v>
+        <v>5334.3831</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>5334.3831</v>
+        <v>5341.4147000000003</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>5341.4147000000003</v>
+        <v>5366.8910999999998</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>5366.8910999999998</v>
+        <v>5371.4552000000003</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>5371.4552000000003</v>
+        <v>5372.9834000000001</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>5372.9834000000001</v>
+        <v>5375.2029000000002</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>5375.2029000000002</v>
+        <v>5381.0699000000004</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>5381.0699000000004</v>
+        <v>5384.8661000000002</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>5384.8661000000002</v>
+        <v>5390.9777000000004</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>5390.9777000000004</v>
+        <v>5394.6670999999997</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>5394.6670999999997</v>
+        <v>5399.1184999999996</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>5399.1184999999996</v>
+        <v>5399.7803000000004</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>5399.7803000000004</v>
+        <v>5405.3239000000003</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>5405.3239000000003</v>
+        <v>5407.2781000000004</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>5407.2781000000004</v>
+        <v>5410.6373000000003</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>5410.6373000000003</v>
+        <v>5412.4139999999998</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>5412.4139999999998</v>
+        <v>5416.7047000000002</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>5416.7047000000002</v>
+        <v>5425.5758999999998</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>5425.5758999999998</v>
+        <v>5434.4579999999996</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>5434.4579999999996</v>
+        <v>5436.0343999999996</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>5436.0343999999996</v>
+        <v>5446.5558000000001</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>5446.5558000000001</v>
+        <v>5464.4776000000002</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>5464.4776000000002</v>
+        <v>5464.7943999999998</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>5464.7943999999998</v>
+        <v>5465.7979999999998</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>5465.7979999999998</v>
+        <v>5467.9152000000004</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>5467.9152000000004</v>
+        <v>5468.5069999999996</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>5468.5069999999996</v>
+        <v>5475.4215000000004</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>5475.4215000000004</v>
+        <v>5478.0860000000002</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>5478.0860000000002</v>
+        <v>5484.6223</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>5484.6223</v>
+        <v>5495.0250999999998</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>5495.0250999999998</v>
+        <v>5499.0433999999996</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>5499.0433999999996</v>
+        <v>5502.9937</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>5502.9937</v>
+        <v>5508.3090000000002</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>5508.3090000000002</v>
+        <v>5523.9804999999997</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>5523.9804999999997</v>
+        <v>5527.0790999999999</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>5527.0790999999999</v>
+        <v>5544.7291999999998</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>5544.7291999999998</v>
+        <v>5545.4754000000003</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>5545.4754000000003</v>
+        <v>5561.7556999999997</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>5561.7556999999997</v>
+        <v>5564.2511999999997</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>5564.2511999999997</v>
+        <v>5567.2496000000001</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>5567.2496000000001</v>
+        <v>5577.6370999999999</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>5577.6370999999999</v>
+        <v>5588.3071</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>5588.3071</v>
+        <v>5589.1253999999999</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>5589.1253999999999</v>
+        <v>5617.2028</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>5617.2028</v>
+        <v>5620.1925000000001</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>5620.1925000000001</v>
+        <v>5625.5830999999998</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>5625.5830999999998</v>
+        <v>5637.3869000000004</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>5637.3869000000004</v>
+        <v>5638.2606999999998</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>5638.2606999999998</v>
+        <v>5644.3175000000001</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>5644.3175000000001</v>
+        <v>5651.5554000000002</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>5651.5554000000002</v>
+        <v>5653.0375000000004</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>5653.0375000000004</v>
+        <v>5653.8867</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>5653.8867</v>
+        <v>5656.7458999999999</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>5656.7458999999999</v>
+        <v>5661.1454000000003</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>5661.1454000000003</v>
+        <v>5662.9165999999996</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>5662.9165999999996</v>
+        <v>5664.0877</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>5664.0877</v>
+        <v>5679.2602999999999</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>5679.2602999999999</v>
+        <v>5679.9543999999996</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>5679.9543999999996</v>
+        <v>5680.5987999999998</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>5680.5987999999998</v>
+        <v>5681.8166000000001</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>5681.8166000000001</v>
+        <v>5688.1081000000004</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>5688.1081000000004</v>
+        <v>5693.0762000000004</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>5693.0762000000004</v>
+        <v>5697.67</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>5697.67</v>
+        <v>5699.6009000000004</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>5699.6009000000004</v>
+        <v>5703.1265000000003</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>5703.1265000000003</v>
+        <v>5706.3163999999997</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>5706.3163999999997</v>
+        <v>5707.0474999999997</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>5707.0474999999997</v>
+        <v>5710.9623000000001</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>5710.9623000000001</v>
+        <v>5711.5164000000004</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>5711.5164000000004</v>
+        <v>5713.7163</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>5713.7163</v>
+        <v>5716.1345000000001</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>5716.1345000000001</v>
+        <v>5726.0428000000002</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>5726.0428000000002</v>
+        <v>5733.3522000000003</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>5733.3522000000003</v>
+        <v>5733.8860999999997</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>5733.8860999999997</v>
+        <v>5743.4411</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>5743.4411</v>
+        <v>5744.5528999999997</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>5744.5528999999997</v>
+        <v>5753.6274000000003</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>5753.6274000000003</v>
+        <v>5754.7183999999997</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>5754.7183999999997</v>
+        <v>5755.9985999999999</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>5755.9985999999999</v>
+        <v>5760.8594999999996</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>5760.8594999999996</v>
+        <v>5761.9422000000004</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>5761.9422000000004</v>
+        <v>5762.8536999999997</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>5762.8536999999997</v>
+        <v>5764.0117</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>5764.0117</v>
+        <v>5770.9228999999996</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>5770.9228999999996</v>
+        <v>5776.6821</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>5776.6821</v>
+        <v>5782.2030999999997</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>5782.2030999999997</v>
+        <v>5782.4074000000001</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>5782.4074000000001</v>
+        <v>5786.2624999999998</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>5786.2624999999998</v>
+        <v>5793.1298999999999</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>5793.1298999999999</v>
+        <v>5795.5213999999996</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>5795.5213999999996</v>
+        <v>5808.3348999999998</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>5808.3348999999998</v>
+        <v>5809.3941000000004</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>5809.3941000000004</v>
+        <v>5809.5857999999998</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>5809.5857999999998</v>
+        <v>5813.5258999999996</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>5813.5258999999996</v>
+        <v>5816.4197000000004</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>5816.4197000000004</v>
+        <v>5818.6893</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>5818.6893</v>
+        <v>5829.4928</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>5829.4928</v>
+        <v>5836.7183999999997</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>5836.7183999999997</v>
+        <v>5839.3195999999998</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>5839.3195999999998</v>
+        <v>5839.9903000000004</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>5839.9903000000004</v>
+        <v>5846.5391</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>5846.5391</v>
+        <v>5846.9072999999999</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>5846.9072999999999</v>
+        <v>5851.3055999999997</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>5851.3055999999997</v>
+        <v>5852.8271000000004</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>5852.8271000000004</v>
+        <v>5853.8409000000001</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>5853.8409000000001</v>
+        <v>5854.7708000000002</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>5854.7708000000002</v>
+        <v>5856.6995999999999</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>5856.6995999999999</v>
+        <v>5857.7112999999999</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>5857.7112999999999</v>
+        <v>5859.8891999999996</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>5859.8891999999996</v>
+        <v>5860.4018999999998</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>5860.4018999999998</v>
+        <v>5861.2109</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>5861.2109</v>
+        <v>5862.7341999999999</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>5862.7341999999999</v>
+        <v>5863.9813999999997</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>5863.9813999999997</v>
+        <v>5874.8406999999997</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>5874.8406999999997</v>
+        <v>5882.9101000000001</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>5882.9101000000001</v>
+        <v>5904.1091999999999</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>5904.1091999999999</v>
+        <v>5907.3085000000001</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>5907.3085000000001</v>
+        <v>5908.4799000000003</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>5908.4799000000003</v>
+        <v>5917.8867</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>5917.8867</v>
+        <v>5929.4315999999999</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>5929.4315999999999</v>
+        <v>5931.3202000000001</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>5931.3202000000001</v>
+        <v>5931.8229000000001</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>5931.8229000000001</v>
+        <v>5936.2992000000004</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>5936.2992000000004</v>
+        <v>5954.3675000000003</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>5954.3675000000003</v>
+        <v>5958.3446000000004</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>5958.3446000000004</v>
+        <v>5964.8905000000004</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>5964.8905000000004</v>
+        <v>5971.2159000000001</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>5971.2159000000001</v>
+        <v>5977.8158000000003</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>5977.8158000000003</v>
+        <v>5978.4327000000003</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>5978.4327000000003</v>
+        <v>5985.3383999999996</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>5985.3383999999996</v>
+        <v>5986.4727999999996</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>5986.4727999999996</v>
+        <v>6004.6749</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>6004.6749</v>
+        <v>6007.2046</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>6007.2046</v>
+        <v>6009.6241</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>6009.6241</v>
+        <v>6010.2206999999999</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>6010.2206999999999</v>
+        <v>6016.9102000000003</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>6016.9102000000003</v>
+        <v>6019.9661999999998</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>6019.9661999999998</v>
+        <v>6021.0329000000002</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>6021.0329000000002</v>
+        <v>6025.7262000000001</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>6025.7262000000001</v>
+        <v>6028.72</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>6028.72</v>
+        <v>6035.7064</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>6035.7064</v>
+        <v>6055.7503999999999</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>6055.7503999999999</v>
+        <v>6057.6814999999997</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>6057.6814999999997</v>
+        <v>6064.5271000000002</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>6064.5271000000002</v>
+        <v>6080.1738999999998</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>6080.1738999999998</v>
+        <v>6080.6922000000004</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>6080.6922000000004</v>
+        <v>6084.3945999999996</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>6084.3945999999996</v>
+        <v>6095.3312999999998</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>6095.3312999999998</v>
+        <v>6096.0607</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>6096.0607</v>
+        <v>6098.3530000000001</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>6098.3530000000001</v>
+        <v>6099.9328999999998</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>6099.9328999999998</v>
+        <v>6101.9602999999997</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>6101.9602999999997</v>
+        <v>6106.8213999999998</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>6106.8213999999998</v>
+        <v>6121.9435000000003</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>6121.9435000000003</v>
+        <v>6129.6027000000004</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>6129.6027000000004</v>
+        <v>6138.3137999999999</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>6138.3137999999999</v>
+        <v>6138.6931999999997</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>6138.6931999999997</v>
+        <v>6139.3904000000002</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>6139.3904000000002</v>
+        <v>6153.3206</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>6153.3206</v>
+        <v>6159.4324999999999</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>6159.4324999999999</v>
+        <v>6167.0663999999997</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>6167.0663999999997</v>
+        <v>6175.0438000000004</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>6175.0438000000004</v>
+        <v>6181.9143000000004</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>6181.9143000000004</v>
+        <v>6189.7025999999996</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>6189.7025999999996</v>
+        <v>6202.0285000000003</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>6202.0285000000003</v>
+        <v>6215.1493</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>6215.1493</v>
+        <v>6216.8633</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>6216.8633</v>
+        <v>6221.0015999999996</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>6221.0015999999996</v>
+        <v>6234.3653999999997</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>6234.3653999999997</v>
+        <v>6242.3725999999997</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>6242.3725999999997</v>
+        <v>6248.0466999999999</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>6248.0466999999999</v>
+        <v>6254.2849999999999</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>6254.2849999999999</v>
+        <v>6266.8669</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>6266.8669</v>
+        <v>6271.9593000000004</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>6271.9593000000004</v>
+        <v>6282.3553000000002</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>6282.3553000000002</v>
+        <v>6299.5348000000004</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>6299.5348000000004</v>
+        <v>6303.2439000000004</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>6303.2439000000004</v>
+        <v>6304.2365</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>6304.2365</v>
+        <v>6313.2457000000004</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>6313.2457000000004</v>
+        <v>6317.558</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>6317.558</v>
+        <v>6338.5765000000001</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>6338.5765000000001</v>
+        <v>6340.6301999999996</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>6340.6301999999996</v>
+        <v>6345.9032999999999</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>6345.9032999999999</v>
+        <v>6366.1252999999997</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>6366.1252999999997</v>
+        <v>6366.4548000000004</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>6366.4548000000004</v>
+        <v>6382.5072</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>6382.5072</v>
+        <v>6387.4838</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402">
-        <v>6387.4838</v>
+        <v>6394.3059000000003</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403">
-        <v>6394.3059000000003</v>
+        <v>6395.3687</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404">
-        <v>6395.3687</v>
+        <v>6401.7704000000003</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405">
-        <v>6401.7704000000003</v>
+        <v>6409.7896000000001</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406">
-        <v>6409.7896000000001</v>
+        <v>6413.4215999999997</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407">
-        <v>6413.4215999999997</v>
+        <v>6421.4197999999997</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408">
-        <v>6421.4197999999997</v>
+        <v>6421.7241000000004</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409">
-        <v>6421.7241000000004</v>
+        <v>6423.1256999999996</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410">
-        <v>6423.1256999999996</v>
+        <v>6432.6238000000003</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411">
-        <v>6432.6238000000003</v>
+        <v>6438.1862000000001</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412">
-        <v>6438.1862000000001</v>
+        <v>6483.6614</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413">
-        <v>6483.6614</v>
+        <v>6496.7750999999998</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414">
-        <v>6496.7750999999998</v>
+        <v>6498.2615999999998</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415">
-        <v>6498.2615999999998</v>
+        <v>6500.7349999999997</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416">
-        <v>6500.7349999999997</v>
+        <v>6511.4153999999999</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417">
-        <v>6511.4153999999999</v>
+        <v>6520.1680999999999</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418">
-        <v>6520.1680999999999</v>
+        <v>6553.4879000000001</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419">
-        <v>6553.4879000000001</v>
+        <v>6558.5992999999999</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420">
-        <v>6558.5992999999999</v>
+        <v>6571.0300999999999</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421">
-        <v>6571.0300999999999</v>
+        <v>6583.0280000000002</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422">
-        <v>6583.0280000000002</v>
+        <v>6593.1333999999997</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423">
-        <v>6593.1333999999997</v>
+        <v>6594.7348000000002</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424">
-        <v>6594.7348000000002</v>
+        <v>6595.6917000000003</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425">
-        <v>6595.6917000000003</v>
+        <v>6609.8509999999997</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426">
-        <v>6609.8509999999997</v>
+        <v>6610.9355999999998</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427">
-        <v>6610.9355999999998</v>
+        <v>6626.8517000000002</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428">
-        <v>6626.8517000000002</v>
+        <v>6629.3751000000002</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429">
-        <v>6629.3751000000002</v>
+        <v>6635.2443999999996</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430">
-        <v>6635.2443999999996</v>
+        <v>6635.5816000000004</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431">
-        <v>6635.5816000000004</v>
+        <v>6635.9391999999998</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432">
-        <v>6635.9391999999998</v>
+        <v>6648.7673000000004</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433">
-        <v>6648.7673000000004</v>
+        <v>6655.6900999999998</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434">
-        <v>6655.6900999999998</v>
+        <v>6669.2601000000004</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435">
-        <v>6669.2601000000004</v>
+        <v>6689.3386</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436">
-        <v>6689.3386</v>
+        <v>6694.1201000000001</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437">
-        <v>6694.1201000000001</v>
+        <v>6700.9913999999999</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438">
-        <v>6700.9913999999999</v>
+        <v>6705.4182000000001</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439">
-        <v>6705.4182000000001</v>
+        <v>6706.3319000000001</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440">
-        <v>6706.3319000000001</v>
+        <v>6706.9534999999996</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441">
-        <v>6706.9534999999996</v>
+        <v>6709.2848999999997</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442">
-        <v>6709.2848999999997</v>
+        <v>6712.1720999999998</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443">
-        <v>6712.1720999999998</v>
+        <v>6717.2371999999996</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444">
-        <v>6717.2371999999996</v>
+        <v>6718.0914000000002</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445">
-        <v>6718.0914000000002</v>
+        <v>6727.2138000000004</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446">
-        <v>6727.2138000000004</v>
+        <v>6728.5237999999999</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447">
-        <v>6728.5237999999999</v>
+        <v>6733.9233000000004</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448">
-        <v>6733.9233000000004</v>
+        <v>6735.01</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449">
-        <v>6735.01</v>
+        <v>6739.8469999999998</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450">
-        <v>6739.8469999999998</v>
+        <v>6741.3823000000002</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451">
-        <v>6741.3823000000002</v>
+        <v>6746.9632000000001</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452">
-        <v>6746.9632000000001</v>
+        <v>6748.8172999999997</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453">
-        <v>6748.8172999999997</v>
+        <v>6752.0156999999999</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454">
-        <v>6752.0156999999999</v>
+        <v>6754.5711000000001</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455">
-        <v>6754.5711000000001</v>
+        <v>6755.3280999999997</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456">
-        <v>6755.3280999999997</v>
+        <v>6785.5762000000004</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457">
-        <v>6785.5762000000004</v>
+        <v>6788.7335000000003</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458">
-        <v>6788.7335000000003</v>
+        <v>6795.1341000000002</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459">
-        <v>6795.1341000000002</v>
+        <v>6805.8786</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460">
-        <v>6805.8786</v>
+        <v>6806.1491999999998</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461">
-        <v>6806.1491999999998</v>
+        <v>6808.7233999999999</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>6808.7233999999999</v>
+        <v>6812.1422000000002</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463">
-        <v>6812.1422000000002</v>
+        <v>6830.4755999999998</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464">
-        <v>6830.4755999999998</v>
+        <v>6838.8927999999996</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465">
-        <v>6838.8927999999996</v>
+        <v>6841.7178999999996</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466">
-        <v>6841.7178999999996</v>
+        <v>6844.5739999999996</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467">
-        <v>6844.5739999999996</v>
+        <v>6845.5443999999998</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468">
-        <v>6845.5443999999998</v>
+        <v>6857.0537000000004</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469">
-        <v>6857.0537000000004</v>
+        <v>6859.1423999999997</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470">
-        <v>6859.1423999999997</v>
+        <v>6860.0420999999997</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471">
-        <v>6860.0420999999997</v>
+        <v>6918.5896000000002</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472">
-        <v>6918.5896000000002</v>
+        <v>6947.1210000000001</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473">
-        <v>6947.1210000000001</v>
+        <v>6980.7764999999999</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474">
-        <v>6980.7764999999999</v>
+        <v>7001.8145999999997</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475">
-        <v>7001.8145999999997</v>
+        <v>7024.8906999999999</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476">
-        <v>7024.8906999999999</v>
+        <v>7134.9525999999996</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477">
-        <v>7134.9525999999996</v>
+        <v>7209.0978999999998</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478">
-        <v>7209.0978999999998</v>
+        <v>7209.3743999999997</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479">
-        <v>7209.3743999999997</v>
+        <v>7290.7467999999999</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480">
-        <v>7290.7467999999999</v>
+        <v>7403.7236000000003</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481">
-        <v>7403.7236000000003</v>
+        <v>7413.1957000000002</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482">
-        <v>7413.1957000000002</v>
+        <v>7420.7107999999998</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483">
-        <v>7420.7107999999998</v>
+        <v>7442.9615999999996</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484">
-        <v>7442.9615999999996</v>
+        <v>7445.0722999999998</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485">
-        <v>7445.0722999999998</v>
+        <v>7449.4449000000004</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486">
-        <v>7449.4449000000004</v>
+        <v>7463.5754999999999</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487">
-        <v>7463.5754999999999</v>
+        <v>7475.6121000000003</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488">
-        <v>7475.6121000000003</v>
+        <v>7478.4348</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489">
-        <v>7478.4348</v>
+        <v>7483.9930000000004</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490">
-        <v>7483.9930000000004</v>
+        <v>7493.7116999999998</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491">
-        <v>7493.7116999999998</v>
+        <v>7497.1314000000002</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492">
-        <v>7497.1314000000002</v>
+        <v>7500.5954000000002</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493">
-        <v>7500.5954000000002</v>
+        <v>7508.0812999999998</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494">
-        <v>7508.0812999999998</v>
+        <v>7509.3334999999997</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495">
-        <v>7509.3334999999997</v>
+        <v>7513.0887000000002</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496">
-        <v>7513.0887000000002</v>
+        <v>7533.2188999999998</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497">
-        <v>7533.2188999999998</v>
+        <v>7543.9894000000004</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498">
-        <v>7543.9894000000004</v>
+        <v>7549.9750000000004</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499">
-        <v>7549.9750000000004</v>
+        <v>7565.0931</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500">
-        <v>7565.0931</v>
+        <v>7570.9838</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501">
-        <v>7570.9838</v>
+        <v>7588.1072000000004</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502">
-        <v>7588.1072000000004</v>
+        <v>7590.3944000000001</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503">
-        <v>7590.3944000000001</v>
+        <v>7620.0869000000002</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504">
-        <v>7620.0869000000002</v>
+        <v>7712.4865</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505">
-        <v>7712.4865</v>
+        <v>7721.1729999999998</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506">
-        <v>7721.1729999999998</v>
+        <v>7725.3334999999997</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507">
-        <v>7725.3334999999997</v>
+        <v>7739.7955000000002</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508">
-        <v>7739.7955000000002</v>
+        <v>7747.6454999999996</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509">
-        <v>7747.6454999999996</v>
+        <v>7748.7262000000001</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510">
-        <v>7748.7262000000001</v>
+        <v>7753.2421999999997</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511">
-        <v>7753.2421999999997</v>
+        <v>7782.6983</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512">
-        <v>7782.6983</v>
+        <v>7804.6198000000004</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513">
-        <v>7804.6198000000004</v>
+        <v>7810.0574999999999</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514">
-        <v>7810.0574999999999</v>
+        <v>7812.9638999999997</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515">
-        <v>7812.9638999999997</v>
+        <v>7822.9552999999996</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516">
-        <v>7822.9552999999996</v>
+        <v>7834.3517000000002</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517">
-        <v>7834.3517000000002</v>
+        <v>7846.7172</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518">
-        <v>7846.7172</v>
+        <v>7857.56</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519">
-        <v>7857.56</v>
+        <v>7915.0437000000002</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520">
-        <v>7915.0437000000002</v>
+        <v>7939.3239000000003</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521">
-        <v>7939.3239000000003</v>
+        <v>7943.2736000000004</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522">
-        <v>7943.2736000000004</v>
+        <v>7948.0325999999995</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523">
-        <v>7948.0325999999995</v>
+        <v>7957.1225999999997</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524">
-        <v>7957.1225999999997</v>
+        <v>7957.8805000000002</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525">
-        <v>7957.8805000000002</v>
+        <v>8001.1458000000002</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526">
-        <v>8001.1458000000002</v>
+        <v>8030.5223999999998</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527">
-        <v>8030.5223999999998</v>
+        <v>8048.2605999999996</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528">
-        <v>8048.2605999999996</v>
+        <v>8074.3845000000001</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529">
-        <v>8074.3845000000001</v>
+        <v>8077.3715000000002</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530">
-        <v>8077.3715000000002</v>
+        <v>8099.1018999999997</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531">
-        <v>8099.1018999999997</v>
+        <v>8206.3583999999992</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532">
-        <v>8206.3583999999992</v>
+        <v>8209.9992999999995</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533">
-        <v>8209.9992999999995</v>
+        <v>8218.0633999999991</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534">
-        <v>8218.0633999999991</v>
+        <v>8222.6388000000006</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535">
-        <v>8222.6388000000006</v>
+        <v>8241.393</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536">
-        <v>8241.393</v>
+        <v>8250.3983000000007</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537">
-        <v>8250.3983000000007</v>
+        <v>8266.5506000000005</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>8266.5506000000005</v>
+        <v>8271.9218999999994</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539">
-        <v>8271.9218999999994</v>
+        <v>8278.1669000000002</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540">
-        <v>8278.1669000000002</v>
+        <v>8295.7942000000003</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541">
-        <v>8295.7942000000003</v>
+        <v>8334.2055999999993</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542">
-        <v>8334.2055999999993</v>
+        <v>8363.0933999999997</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543">
-        <v>8363.0933999999997</v>
+        <v>8367.9326000000001</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544">
-        <v>8367.9326000000001</v>
+        <v>8403.7088000000003</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>8403.7088000000003</v>
+        <v>8426.4555</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546">
-        <v>8426.4555</v>
+        <v>8441.8911000000007</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547">
-        <v>8441.8911000000007</v>
+        <v>8470.7343000000001</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>8470.7343000000001</v>
+        <v>8474.0720999999994</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549">
-        <v>8474.0720999999994</v>
+        <v>8516.4112999999998</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>8516.4112999999998</v>
+        <v>8529.0115999999998</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551">
-        <v>8529.0115999999998</v>
+        <v>8574.1600999999991</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552">
-        <v>8574.1600999999991</v>
+        <v>8601.1923999999999</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553">
-        <v>8601.1923999999999</v>
+        <v>8612.9773000000005</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554">
-        <v>8612.9773000000005</v>
+        <v>8614.1695999999993</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555">
-        <v>8614.1695999999993</v>
+        <v>8616.3071999999993</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>8616.3071999999993</v>
+        <v>8618.6463999999996</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557">
-        <v>8618.6463999999996</v>
+        <v>8623.9689999999991</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558">
-        <v>8623.9689999999991</v>
+        <v>8677.1291000000001</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559">
-        <v>8677.1291000000001</v>
+        <v>8691.0118999999995</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560">
-        <v>8691.0118999999995</v>
+        <v>8701.8433000000005</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561">
-        <v>8701.8433000000005</v>
+        <v>8712.7837999999992</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562">
-        <v>8712.7837999999992</v>
+        <v>8759.5925999999999</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563">
-        <v>8759.5925999999999</v>
+        <v>8766.3732</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564">
-        <v>8766.3732</v>
+        <v>8786.8528000000006</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565">
-        <v>8786.8528000000006</v>
+        <v>8795.7585999999992</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566">
-        <v>8795.7585999999992</v>
+        <v>8798.8991999999998</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567">
-        <v>8798.8991999999998</v>
+        <v>8807.0437000000002</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568">
-        <v>8807.0437000000002</v>
+        <v>8810.5897999999997</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569">
-        <v>8810.5897999999997</v>
+        <v>8826.6442000000006</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570">
-        <v>8826.6442000000006</v>
+        <v>8849.1699000000008</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571">
-        <v>8849.1699000000008</v>
+        <v>8869.3675999999996</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572">
-        <v>8869.3675999999996</v>
+        <v>8878.4611999999997</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573">
-        <v>8878.4611999999997</v>
+        <v>8945.5192000000006</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>8945.5192000000006</v>
+        <v>8947.6458999999995</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>8947.6458999999995</v>
+        <v>8952.6460999999999</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>8952.6460999999999</v>
+        <v>8977.8647000000001</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577">
-        <v>8977.8647000000001</v>
+        <v>9013.0681000000004</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578">
-        <v>9013.0681000000004</v>
+        <v>9016.4519999999993</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579">
-        <v>9016.4519999999993</v>
+        <v>9022.2229000000007</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580">
-        <v>9022.2229000000007</v>
+        <v>9039.2358999999997</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>9039.2358999999997</v>
+        <v>9086.6787999999997</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582">
-        <v>9086.6787999999997</v>
+        <v>9106.1362000000008</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583">
-        <v>9106.1362000000008</v>
+        <v>9212.5532999999996</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584">
-        <v>9212.5532999999996</v>
+        <v>9786.6740000000009</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585">
-        <v>9786.6740000000009</v>
+        <v>9802.9961000000003</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586">
-        <v>9802.9961000000003</v>
+        <v>9803.4871000000003</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587">
-        <v>9803.4871000000003</v>
+        <v>9836.8809000000001</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588">
-        <v>9836.8809000000001</v>
+        <v>9864.4408999999996</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589">
-        <v>9864.4408999999996</v>
+        <v>9891.7476999999999</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590">
-        <v>9891.7476999999999</v>
+        <v>9946.9321</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591">
-        <v>9946.9321</v>
+        <v>9956.2016999999996</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592">
-        <v>9956.2016999999996</v>
+        <v>9972.9673000000003</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>9972.9673000000003</v>
+        <v>9980.3765999999996</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594">
-        <v>9980.3765999999996</v>
+        <v>9983.2003000000004</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595">
-        <v>9983.2003000000004</v>
+        <v>9998.8030999999992</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596">
-        <v>9998.8030999999992</v>
+        <v>10022.539000000001</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597">
-        <v>10022.539000000001</v>
+        <v>10035.609</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598">
-        <v>10035.609</v>
+        <v>10067.804</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>10067.804</v>
+        <v>10073.280000000001</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600">
-        <v>10073.280000000001</v>
+        <v>10084.157999999999</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601">
-        <v>10084.157999999999</v>
+        <v>10089.005999999999</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602">
-        <v>10089.005999999999</v>
+        <v>10116.789000000001</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603">
-        <v>10116.789000000001</v>
+        <v>10139.879999999999</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604">
-        <v>10139.879999999999</v>
+        <v>10148.343999999999</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605">
-        <v>10148.343999999999</v>
+        <v>10157.949000000001</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606">
-        <v>10157.949000000001</v>
+        <v>10159.290000000001</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607">
-        <v>10159.290000000001</v>
+        <v>10170.255999999999</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608">
-        <v>10170.255999999999</v>
+        <v>10197.902</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609">
-        <v>10197.902</v>
+        <v>10219.114</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610">
-        <v>10219.114</v>
+        <v>10221.210999999999</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611">
-        <v>10221.210999999999</v>
+        <v>10255.364</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612">
-        <v>10255.364</v>
+        <v>10268.032999999999</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613">
-        <v>10268.032999999999</v>
+        <v>10286.596</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>10286.596</v>
+        <v>10310.279</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615">
-        <v>10310.279</v>
+        <v>10335.161</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616">
-        <v>10335.161</v>
+        <v>10343.719999999999</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617">
-        <v>10343.719999999999</v>
+        <v>10348.019</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618">
-        <v>10348.019</v>
+        <v>10350.802</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619">
-        <v>10350.802</v>
+        <v>10356.644</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620">
-        <v>10356.644</v>
+        <v>10365.544</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>10365.544</v>
+        <v>10366.902</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622">
-        <v>10366.902</v>
+        <v>10381.846</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623">
-        <v>10381.846</v>
+        <v>10391.591</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624">
-        <v>10391.591</v>
+        <v>10398.646000000001</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625">
-        <v>10398.646000000001</v>
+        <v>10425.887000000001</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626">
-        <v>10425.887000000001</v>
+        <v>10426.602000000001</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627">
-        <v>10426.602000000001</v>
+        <v>10535.121999999999</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628">
-        <v>10535.121999999999</v>
+        <v>10580.039000000001</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629">
-        <v>10580.039000000001</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630">
         <v>10619.632</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:A646">
-    <sortCondition ref="A12:A646"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:A645">
+    <sortCondition ref="A12:A645"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
